--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1763091.342460959</v>
+        <v>1838621.012125764</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800614</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.0178122286242</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>201.4956331272004</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>33.8341118277506</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>14.91385451133342</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>358.6262488169058</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>129.1658700790423</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.35002255071607</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>187.5766315601733</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>74.53476167013064</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>192.2517723259272</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>239.9047588732627</v>
       </c>
       <c r="X10" t="n">
-        <v>79.4873442018814</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.6493572504951</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>109.4779828373166</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>221.0134216408982</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2050,25 +2052,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>21.81615865212095</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>175.369831275943</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>140.0424879565123</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.35845141792478</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>26.48394936267205</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>172.2384913838565</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.4653217847137</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>67.48811218654264</v>
       </c>
       <c r="T37" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.872250580816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113179</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527414</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051992</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4071,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262929</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014475</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>118.4898845065047</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1381.442801724941</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>995.6545491266968</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>584.6686443370893</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302.7751770479791</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>713.064484700037</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>713.064484700037</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>713.064484700037</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>713.064484700037</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782189</v>
+        <v>713.064484700037</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782189</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.4236418782189</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1603.407129497228</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="C5" t="n">
-        <v>1603.407129497228</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="D5" t="n">
-        <v>1245.141430890478</v>
+        <v>1308.38243500963</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>922.5941824113856</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>511.6082776217781</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1667.156396867425</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1298.193879927013</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>939.9281813202624</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>554.1399287220181</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>143.1540239324106</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>129.2306198710015</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2502.955381598094</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2502.955381598094</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2502.955381598094</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2150.18672632798</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>2150.18672632798</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.18672632798</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4887,43 +4889,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +5001,13 @@
         <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>618.4218183914891</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>397.6292392479589</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5027,19 +5029,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5051,16 +5053,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,22 +5123,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>846.3978353108171</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>677.4616523829102</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1251.831715351551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1028.046300141057</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1028.046300141057</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1028.046300141057</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1028.046300141057</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1028.046300141057</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1028.046300141057</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5297,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5373,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1077.337335987485</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>788.2086972010437</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>533.5242089951569</v>
+        <v>964.6752765899282</v>
       </c>
       <c r="W16" t="n">
-        <v>244.1070389581962</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>675.2581065529675</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5500,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5534,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.105874218302</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5698,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1365.804643228696</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1365.804643228696</v>
       </c>
       <c r="U19" t="n">
-        <v>1010.779913322206</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="V19" t="n">
-        <v>756.0954251163193</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="W19" t="n">
-        <v>756.0954251163193</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="X19" t="n">
-        <v>528.105874218302</v>
+        <v>1076.676004442255</v>
       </c>
       <c r="Y19" t="n">
-        <v>528.105874218302</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5744,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,25 +5776,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5847,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6084,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3609.573402368731</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="C25" t="n">
-        <v>3609.573402368731</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="D25" t="n">
-        <v>3609.573402368731</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="E25" t="n">
-        <v>3609.573402368731</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368731</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4666.589114608516</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4442.803699398021</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4153.675060611579</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>3898.990572405692</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>3609.573402368731</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X25" t="n">
-        <v>3609.573402368731</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y25" t="n">
-        <v>3609.573402368731</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>761.6147079354637</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>592.6785250075568</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>442.561885595221</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>442.561885595221</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>442.561885595221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>274.3865639150416</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>123.9685554629849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.055751909234</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>1164.055751909234</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X28" t="n">
-        <v>1164.055751909234</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y28" t="n">
-        <v>943.2631727657034</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601279</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916993</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>4741.167820987513</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>4741.167820987513</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6883,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1313.597763704656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1089.812348494162</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6935,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>4206.132591937264</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4681.609659286681</v>
       </c>
       <c r="T37" t="n">
-        <v>1090.100879744681</v>
+        <v>4681.609659286681</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>4681.609659286681</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>4426.925171080794</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>4426.925171080794</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>4426.925171080794</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>4206.132591937264</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3326.06821056133</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3633.388343841292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3963.250971505325</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4242.791036724022</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4763.091658459769</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1340.085404217832</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1340.085404217832</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1050.956765431391</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>796.2722772255036</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>506.8551071885429</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905255</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7396,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7433,10 +7435,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7624,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155898</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823773</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514047</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.8883477952</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515088</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619116</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643308</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899109</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207811</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525786</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714517</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102004</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047449</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316299</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358152</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675028</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126474</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571587</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636208</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.51382364358</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307611</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526305</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060426</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376139</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>2623.573505376139</v>
       </c>
       <c r="S45" t="n">
         <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.752784383691</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.647860003078</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7770,7 +7772,7 @@
         <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.646596072647</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241952</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688058</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179934</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980058</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758574</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557895</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557895</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208058</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>169.2863157167179</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987300329</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776894</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445274</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>63.27145273310816</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>112.0695782210726</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>31.12422168292977</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>176.1046513314823</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>110.8675211226343</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24178,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518773</v>
+        <v>228.5889167740531</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>26.45108050686531</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5623585656785</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>83.93529610159995</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>53.4711640051807</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25123,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>14.45548819888955</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>130.4326977970606</v>
       </c>
       <c r="T37" t="n">
-        <v>14.74113413690327</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>40.67825230693387</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642722</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037931</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>79.43092547709868</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590217</v>
@@ -26326,34 +26328,34 @@
         <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590217</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="O2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="P2" t="n">
         <v>508337.7776590214</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-1.133020869359219e-09</v>
       </c>
     </row>
     <row r="4">
@@ -26424,10 +26426,10 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
@@ -26436,28 +26438,28 @@
         <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="J4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773423</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871655</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232978</v>
+        <v>-322498.4937232977</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912471</v>
+        <v>267469.3854912468</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912466</v>
+        <v>267469.3854912469</v>
       </c>
       <c r="E6" t="n">
-        <v>-145242.0682843251</v>
+        <v>-145242.068284325</v>
       </c>
       <c r="F6" t="n">
         <v>379917.9681925711</v>
       </c>
       <c r="G6" t="n">
+        <v>379917.9681925711</v>
+      </c>
+      <c r="H6" t="n">
+        <v>379917.9681925712</v>
+      </c>
+      <c r="I6" t="n">
         <v>379917.968192571</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>203494.7489999782</v>
+      </c>
+      <c r="K6" t="n">
         <v>379917.968192571</v>
-      </c>
-      <c r="I6" t="n">
-        <v>379917.9681925711</v>
-      </c>
-      <c r="J6" t="n">
-        <v>203494.748999978</v>
-      </c>
-      <c r="K6" t="n">
-        <v>379917.9681925711</v>
       </c>
       <c r="L6" t="n">
         <v>379917.968192571</v>
       </c>
       <c r="M6" t="n">
-        <v>245116.9529587339</v>
+        <v>245116.9529587338</v>
       </c>
       <c r="N6" t="n">
-        <v>379917.9681925709</v>
+        <v>379917.968192571</v>
       </c>
       <c r="O6" t="n">
-        <v>379917.968192571</v>
+        <v>379917.9681925711</v>
       </c>
       <c r="P6" t="n">
-        <v>379917.968192571</v>
+        <v>379917.9681925735</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26768,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540961</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-3.22825022140104e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.7160294348564</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>212.2885368935946</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>133.4127092708772</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>197.2316844386855</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.30412125535599</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>284.6182999417528</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>112.6155992416222</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>24.56890738984561</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>249.3880110942265</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>24.19654803173063</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>46.61823946332831</v>
       </c>
       <c r="X10" t="n">
-        <v>146.2223111871558</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.3382207254436</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444928</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176645</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.327311296119</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041467</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304414</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956549</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927156</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540857</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946968</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647478</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446467</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104611</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562937</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354879</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354094</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386717</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127033</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215725</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622968</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358965</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724823</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813438</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855505</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458532</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710945</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095112</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677448</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361453</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680325</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081157</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990339</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298608</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822378</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557925</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196113</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171308</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263739</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065621</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469064</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235685</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337636</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336888</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892214</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35255,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37151,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>418.5440206727421</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415065</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303308</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109046</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221087</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081089</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951443</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109099</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150203</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970351787</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953147</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005164</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560223</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.424377050464</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980106</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411061</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092123</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209221</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556501</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299097</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799274</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789713</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056025</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206018</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117999</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187412</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1838621.012125764</v>
+        <v>1831603.997234054</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800614</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10508212.9556351</v>
+        <v>10508212.95563509</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>201.4956331272004</v>
+        <v>331.7615209354891</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>56.58072854101204</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>14.91385451133342</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>129.1658700790423</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>187.5766315601733</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>17.02555585116021</v>
       </c>
       <c r="H8" t="n">
-        <v>74.53476167013064</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.82466560786662</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.9047588732627</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>131.255981836551</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>221.0134216408982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>21.81615865212095</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>57.64843562452423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>140.0424879565123</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>145.5074392166366</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>172.2384913838565</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>140.4503312970632</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>67.48811218654264</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0952537370586</v>
       </c>
     </row>
     <row r="38">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.872250580816</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527414</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051992</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262929</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014475</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>118.4898845065047</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1739.708500331692</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1739.708500331692</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1381.442801724941</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>995.6545491266968</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>584.6686443370893</v>
+        <v>542.5216052348597</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.708500331692</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.0749338020197</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>485.0749338020197</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0749338020197</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>713.064484700037</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>713.064484700037</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>713.064484700037</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>713.064484700037</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>713.064484700037</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>485.0749338020197</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>485.0749338020197</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1666.64813361638</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1666.64813361638</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.38243500963</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>922.5941824113856</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>511.6082776217781</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.387305656314</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2053.247973680502</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4658,10 +4658,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>509.2407200497801</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1667.156396867425</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C8" t="n">
-        <v>1298.193879927013</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="D8" t="n">
-        <v>939.9281813202624</v>
+        <v>1348.575366339912</v>
       </c>
       <c r="E8" t="n">
-        <v>554.1399287220181</v>
+        <v>962.7871137416676</v>
       </c>
       <c r="F8" t="n">
-        <v>143.1540239324106</v>
+        <v>551.8012089520601</v>
       </c>
       <c r="G8" t="n">
-        <v>129.2306198710015</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1667.156396867425</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>643.457604804549</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W10" t="n">
-        <v>456.3840257941342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5123,22 +5123,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="14">
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5375,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.2581065529675</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C16" t="n">
-        <v>675.2581065529675</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529675</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>964.6752765899282</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>675.2581065529675</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>675.2581065529675</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.2581065529675</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="17">
@@ -5494,28 +5494,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1365.804643228696</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1365.804643228696</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1076.676004442255</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1076.676004442255</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1076.676004442255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>1076.676004442255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.685527502827</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1186.00103929694</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>896.5838692599799</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5968,46 +5968,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>238.6741500022174</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>238.6741500022174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>238.6741500022174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>238.6741500022174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>238.6741500022174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1240.863955789792</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>951.73531700335</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>951.73531700335</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324571</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324571</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.3226148324571</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6238,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570736</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570736</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X28" t="n">
-        <v>646.5480829319661</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.7555037884359</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4741.167820987513</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4741.167820987513</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4452.039182201071</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>4197.354693995184</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>3907.937523958223</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>3679.947973060206</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6934,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,13 +6970,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4206.132591937264</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C37" t="n">
-        <v>4037.196409009357</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>4037.196409009357</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4681.609659286681</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4681.609659286681</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>4681.609659286681</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V37" t="n">
-        <v>4426.925171080794</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W37" t="n">
-        <v>4426.925171080794</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X37" t="n">
-        <v>4426.925171080794</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="Y37" t="n">
-        <v>4206.132591937264</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,19 +7396,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7435,10 +7435,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601279</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,55 +7624,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155898</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823773</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514047</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.8883477952</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515088</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619116</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643308</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899109</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207811</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525786</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714517</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102004</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047449</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316299</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358152</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675028</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126474</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636208</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.51382364358</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307611</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526305</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060426</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376139</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376139</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
         <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.752784383691</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003078</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7772,7 +7772,7 @@
         <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072647</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241952</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688058</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.497233179934</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471155</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980058</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.08282758574</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557895</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557895</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>283.6093329825492</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208048</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987300329</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776894</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445274</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>87.32867151554376</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.118140440917699</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>31.12422168292977</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>176.1046513314823</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>228.5889167740531</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>26.45108050686531</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>76.04012184175269</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>53.4711640051807</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>5.983631349505941</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>130.4326977970606</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>65.48939961503623</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>5.621317882561556</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642722</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037931</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>79.43092547709868</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.6212501178</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590217</v>
@@ -26337,16 +26337,16 @@
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590216</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.133020869359219e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,13 +26423,13 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
@@ -26441,7 +26441,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773396</v>
@@ -26450,7 +26450,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.4835177339</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773394</v>
@@ -26459,7 +26459,7 @@
         <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773423</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871655</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232977</v>
+        <v>-322498.4937232978</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912468</v>
+        <v>267469.3854912474</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912469</v>
+        <v>267469.3854912471</v>
       </c>
       <c r="E6" t="n">
-        <v>-145242.068284325</v>
+        <v>-146216.6595440464</v>
       </c>
       <c r="F6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="G6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="H6" t="n">
-        <v>379917.9681925712</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="I6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="J6" t="n">
-        <v>203494.7489999782</v>
+        <v>202520.1577402564</v>
       </c>
       <c r="K6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="L6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="M6" t="n">
-        <v>245116.9529587338</v>
+        <v>244142.361699012</v>
       </c>
       <c r="N6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="O6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="P6" t="n">
-        <v>379917.9681925735</v>
+        <v>378943.3769328492</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054540961</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.22825022140104e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>212.2885368935946</v>
+        <v>82.02264908530589</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>78.38489325132619</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>197.2316844386855</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>284.6182999417528</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>24.56890738984561</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>396.7586141696348</v>
       </c>
       <c r="H8" t="n">
-        <v>249.3880110942265</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>141.2104398502177</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>46.61823946332831</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.3382207254436</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444928</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176645</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.327311296119</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041467</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304414</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956549</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927156</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540857</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946968</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647478</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446467</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104611</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562937</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354879</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354094</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386717</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127033</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215725</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622968</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358965</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724823</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813438</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855505</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458532</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710945</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095112</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677448</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361453</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680325</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081157</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990339</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298608</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822378</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557925</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196113</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171308</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263739</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065621</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469064</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235685</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337636</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336888</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892214</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351773</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>594.0337100330154</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349808</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523295</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415065</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303308</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109046</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221087</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081089</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951443</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109099</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150203</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970351787</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953147</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005164</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560223</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.424377050464</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980106</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411061</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092123</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209221</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556501</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299097</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799274</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789713</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056025</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206018</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006117999</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187412</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1831603.997234054</v>
+        <v>1836543.260083085</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10508212.95563509</v>
+        <v>10508212.9556351</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>141.3017170140629</v>
       </c>
       <c r="G2" t="n">
-        <v>331.7615209354891</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>56.58072854101204</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>172.3954181406564</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.46389722690851</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>17.02555585116021</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>83.82466560786662</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.255981836551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>123.1663911814755</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>15.74955790720853</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>46.25903264965491</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>145.5074392166366</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>127.6176159584065</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>170.5809693952292</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>140.4503312970632</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>135.0282639333627</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.0952537370586</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.521057189058</v>
+        <v>1512.155724216995</v>
       </c>
       <c r="D2" t="n">
-        <v>935.2553585823075</v>
+        <v>1153.890025610244</v>
       </c>
       <c r="E2" t="n">
-        <v>549.4671059840632</v>
+        <v>768.101773012</v>
       </c>
       <c r="F2" t="n">
-        <v>542.5216052348597</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>156.7517573047574</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>156.7517573047574</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>156.7517573047574</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>156.7517573047574</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H4" t="n">
-        <v>156.7517573047574</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2467.983615548053</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2467.983615548053</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2467.983615548053</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2467.983615548053</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2467.983615548053</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521276</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2075.803581887074</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1706.841064946662</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1348.575366339912</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>962.7871137416676</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>551.8012089520601</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W13" t="n">
-        <v>674.7185717878251</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X13" t="n">
-        <v>674.7185717878251</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.1367719529251</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.9805482336712</v>
+        <v>371.7442270155261</v>
       </c>
       <c r="C16" t="n">
-        <v>241.9805482336712</v>
+        <v>371.7442270155261</v>
       </c>
       <c r="D16" t="n">
-        <v>241.9805482336712</v>
+        <v>221.6275876031904</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>221.6275876031904</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>221.6275876031904</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>221.6275876031904</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X16" t="n">
-        <v>241.9805482336712</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.9805482336712</v>
+        <v>371.7442270155261</v>
       </c>
     </row>
     <row r="17">
@@ -5503,25 +5503,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,7 +5849,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,25 +5989,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>612.6533566105697</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>462.536717198234</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>462.536717198234</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1240.863955789792</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>951.73531700335</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>951.73531700335</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>662.3181469663895</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X25" t="n">
-        <v>434.3285960683721</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y25" t="n">
-        <v>434.3285960683721</v>
+        <v>781.5895395384766</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,19 +6220,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>226.1237742465551</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1326.612261067772</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.48362228133</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754431</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>493.3819640384826</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>709.4512536188992</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>420.0340835819385</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>420.0340835819385</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,40 +7159,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7216,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7359,19 +7359,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,7 +7508,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>227.8356641388029</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.32867151554376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.118140440917699</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>25.74743718606064</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.16201537327633</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>76.04012184175269</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>18.81634668816262</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>50.96659166316005</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>5.983631349505941</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25131,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>90.68139145567449</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.48939961503623</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841025</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="14">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590215</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590216</v>
@@ -26355,7 +26355,7 @@
         <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36432.4835177339</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232978</v>
+        <v>-322498.4937232976</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912474</v>
+        <v>267469.3854912472</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912471</v>
+        <v>267469.3854912468</v>
       </c>
       <c r="E6" t="n">
-        <v>-146216.6595440464</v>
+        <v>-145339.5274102972</v>
       </c>
       <c r="F6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665988</v>
       </c>
       <c r="G6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="H6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665987</v>
       </c>
       <c r="I6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="J6" t="n">
-        <v>202520.1577402564</v>
+        <v>203397.2898740057</v>
       </c>
       <c r="K6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="L6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="M6" t="n">
-        <v>244142.361699012</v>
+        <v>245019.4938327616</v>
       </c>
       <c r="N6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="O6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="P6" t="n">
-        <v>378943.3769328492</v>
+        <v>379820.5090665988</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>265.5743287276485</v>
       </c>
       <c r="G2" t="n">
-        <v>82.02264908530589</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>78.38489325132619</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>2.020294668315131</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.5017245654297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>396.7586141696348</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.52067551358147</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28058,19 +28058,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>141.2104398502177</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
